--- a/1 etim ds 2022/EAMT/Planilhas Excel - RSU/Planilha Abrelpe RSU.xlsx
+++ b/1 etim ds 2022/EAMT/Planilhas Excel - RSU/Planilha Abrelpe RSU.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1 etim ds 2022\EAMT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1 etim ds 2022\EAMT\Planilhas Excel - RSU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5C90B9-0D5D-4A5C-92E1-9358AFF07A7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACCC68F-2F9B-4CC9-B298-0192F0B1BCD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{78BE9437-7E1D-4B2D-BC9F-1BCAD08AE796}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
   <si>
     <t>Geração Absoluta Total (T/Ano)</t>
   </si>
@@ -39,31 +39,19 @@
     <t>Norte</t>
   </si>
   <si>
-    <t>4,406,280</t>
-  </si>
-  <si>
     <t>Nordeste</t>
   </si>
   <si>
-    <t>17,397,725</t>
-  </si>
-  <si>
     <t>Centro-Oeste</t>
   </si>
   <si>
-    <t>5,076,055</t>
-  </si>
-  <si>
     <t>Sudeste</t>
   </si>
   <si>
-    <t>32,652,900</t>
-  </si>
-  <si>
     <t>Sul</t>
   </si>
   <si>
-    <t>7,162,760</t>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -147,7 +135,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -175,6 +163,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -528,7 +522,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,8 +562,8 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>4</v>
+      <c r="B4" s="13">
+        <v>4406280</v>
       </c>
       <c r="C4" s="9">
         <v>5866645</v>
@@ -577,10 +571,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="14">
+        <v>17397725</v>
       </c>
       <c r="C5" s="9">
         <v>19700875</v>
@@ -588,10 +582,10 @@
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="14">
+        <v>5076055</v>
       </c>
       <c r="C6" s="10">
         <v>5815180</v>
@@ -599,10 +593,10 @@
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="14">
+        <v>32652900</v>
       </c>
       <c r="C7" s="10">
         <v>39442995</v>
@@ -610,13 +604,26 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="14">
+        <v>7162760</v>
       </c>
       <c r="C8" s="9">
         <v>8243890</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <f>SUM(B4:B8)</f>
+        <v>66695720</v>
+      </c>
+      <c r="C9" s="9">
+        <f>SUM(C4:C8)</f>
+        <v>79069585</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -649,37 +656,40 @@
       <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="13">
+        <f>B4/$B$9</f>
+        <v>6.6065408694890762E-2</v>
+      </c>
       <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="B15" s="13"/>
       <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="B16" s="13"/>
       <c r="C16" s="10"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="B17" s="13"/>
       <c r="C17" s="10"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="B18" s="13"/>
       <c r="C18" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -717,14 +727,14 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="10"/>
@@ -732,7 +742,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="10"/>
@@ -740,7 +750,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="9"/>
